--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T06:40:04+00:00</t>
+    <t>2025-09-25T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T07:29:00+00:00</t>
+    <t>2025-10-20T12:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,7 +237,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Transport</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -2016,7 +2016,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="18.546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
